--- a/Task.TestDesign/Task.test_disign.xlsx
+++ b/Task.TestDesign/Task.test_disign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8235"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8925" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="5" r:id="rId1"/>
@@ -625,11 +625,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -642,16 +637,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -669,6 +654,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3451,7 +3451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3461,22 +3461,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="31" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="30" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="29" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="20" spans="24:24" x14ac:dyDescent="0.25">
-      <c r="X20" s="35"/>
+      <c r="X20" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3655,25 +3655,25 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="24"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -3894,8 +3894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3936,7 +3936,7 @@
       <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -3948,7 +3948,7 @@
       <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="32">
         <v>43366.470833333333</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -3959,7 +3959,7 @@
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -3971,8 +3971,8 @@
       <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="39">
-        <v>43367.47083327546</v>
+      <c r="F3" s="32">
+        <v>43366.475694444445</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>18</v>
@@ -3982,7 +3982,7 @@
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -3994,8 +3994,8 @@
       <c r="E4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="39">
-        <v>43368.47083327546</v>
+      <c r="F4" s="32">
+        <v>43366.480555613423</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>18</v>
@@ -4005,7 +4005,7 @@
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -4017,8 +4017,8 @@
       <c r="E5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="39">
-        <v>43369.47083327546</v>
+      <c r="F5" s="32">
+        <v>43366.485416782409</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>18</v>
@@ -4028,7 +4028,7 @@
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="34" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -4040,8 +4040,8 @@
       <c r="E6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="39">
-        <v>43370.47083327546</v>
+      <c r="F6" s="32">
+        <v>43366.490277951387</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>18</v>
@@ -4051,7 +4051,7 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="34" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -4063,8 +4063,8 @@
       <c r="E7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="39">
-        <v>43371.47083327546</v>
+      <c r="F7" s="32">
+        <v>43366.495139120372</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>18</v>
@@ -4074,7 +4074,7 @@
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -4086,8 +4086,8 @@
       <c r="E8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="39">
-        <v>43372.47083327546</v>
+      <c r="F8" s="32">
+        <v>43366.50000028935</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>18</v>
@@ -4097,7 +4097,7 @@
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="34" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -4109,8 +4109,8 @@
       <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="39">
-        <v>43373.47083327546</v>
+      <c r="F9" s="32">
+        <v>43366.504861458336</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>18</v>
@@ -4140,13 +4140,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -4154,7 +4154,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -4162,7 +4162,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -4170,36 +4170,36 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="27" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="23" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Task.TestDesign/Task.test_disign.xlsx
+++ b/Task.TestDesign/Task.test_disign.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4565DDAF-2A04-4B13-99D7-F1130208C2C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8925" activeTab="3"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8925" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="5" r:id="rId1"/>
@@ -338,7 +339,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -673,9 +674,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input 2" xfId="3"/>
+    <cellStyle name="Input 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -707,7 +708,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Right Arrow 37"/>
+        <xdr:cNvPr id="38" name="Right Arrow 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -761,7 +768,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Oval 8"/>
+        <xdr:cNvPr id="9" name="Oval 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -818,7 +831,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Right Arrow 35"/>
+        <xdr:cNvPr id="36" name="Right Arrow 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -872,7 +891,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Right Arrow 34"/>
+        <xdr:cNvPr id="35" name="Right Arrow 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -926,7 +951,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Right Arrow 32"/>
+        <xdr:cNvPr id="33" name="Right Arrow 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -980,7 +1011,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Right Arrow 31"/>
+        <xdr:cNvPr id="32" name="Right Arrow 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1034,7 +1071,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvPr id="2" name="Oval 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1091,7 +1134,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvPr id="4" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1164,7 +1213,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Oval 5"/>
+        <xdr:cNvPr id="6" name="Oval 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1221,7 +1276,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvPr id="3" name="Oval 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1278,7 +1339,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Oval 6"/>
+        <xdr:cNvPr id="7" name="Oval 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1335,7 +1402,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Oval 7"/>
+        <xdr:cNvPr id="8" name="Oval 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1392,7 +1465,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Oval 9"/>
+        <xdr:cNvPr id="10" name="Oval 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1449,7 +1528,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Oval 10"/>
+        <xdr:cNvPr id="11" name="Oval 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1506,7 +1591,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Right Arrow 14"/>
+        <xdr:cNvPr id="15" name="Right Arrow 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1560,7 +1651,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Right Arrow 15"/>
+        <xdr:cNvPr id="16" name="Right Arrow 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1614,7 +1711,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Right Arrow 16"/>
+        <xdr:cNvPr id="17" name="Right Arrow 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1668,7 +1771,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Right Arrow 18"/>
+        <xdr:cNvPr id="19" name="Right Arrow 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1722,7 +1831,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Right Arrow 19"/>
+        <xdr:cNvPr id="20" name="Right Arrow 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1776,7 +1891,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Right Arrow 21"/>
+        <xdr:cNvPr id="22" name="Right Arrow 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1830,7 +1951,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Right Arrow 22"/>
+        <xdr:cNvPr id="23" name="Right Arrow 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1879,7 +2006,13 @@
     <xdr:ext cx="1158459" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1931,7 +2064,13 @@
     <xdr:ext cx="2136995" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextBox 24"/>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1983,7 +2122,13 @@
     <xdr:ext cx="1526572" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="TextBox 25"/>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2035,7 +2180,13 @@
     <xdr:ext cx="1107611" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="TextBox 26"/>
+        <xdr:cNvPr id="27" name="TextBox 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2087,7 +2238,13 @@
     <xdr:ext cx="1770998" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2139,7 +2296,13 @@
     <xdr:ext cx="1314847" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="TextBox 28"/>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2191,7 +2354,13 @@
     <xdr:ext cx="1660711" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="TextBox 29"/>
+        <xdr:cNvPr id="30" name="TextBox 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2248,7 +2417,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Right Arrow 33"/>
+        <xdr:cNvPr id="34" name="Right Arrow 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2297,7 +2472,13 @@
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="TextBox 38"/>
+        <xdr:cNvPr id="39" name="TextBox 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2351,7 +2532,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Elbow Connector 44"/>
+        <xdr:cNvPr id="45" name="Elbow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="0"/>
           <a:endCxn id="2" idx="0"/>
@@ -2403,7 +2590,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="Elbow Connector 56"/>
+        <xdr:cNvPr id="57" name="Elbow Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="9" idx="4"/>
           <a:endCxn id="8" idx="4"/>
@@ -2455,7 +2648,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Elbow Connector 64"/>
+        <xdr:cNvPr id="65" name="Elbow Connector 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="4"/>
           <a:endCxn id="6" idx="5"/>
@@ -2502,7 +2701,13 @@
     <xdr:ext cx="1471493" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="TextBox 67"/>
+        <xdr:cNvPr id="68" name="TextBox 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2554,7 +2759,13 @@
     <xdr:ext cx="1401153" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="TextBox 69"/>
+        <xdr:cNvPr id="70" name="TextBox 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2606,7 +2817,13 @@
     <xdr:ext cx="1359924" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="TextBox 70"/>
+        <xdr:cNvPr id="71" name="TextBox 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2663,7 +2880,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="Curved Connector 72"/>
+        <xdr:cNvPr id="73" name="Curved Connector 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2713,7 +2936,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="Elbow Connector 77"/>
+        <xdr:cNvPr id="78" name="Elbow Connector 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="0"/>
           <a:endCxn id="2" idx="7"/>
@@ -2760,7 +2989,13 @@
     <xdr:ext cx="1483740" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="TextBox 78"/>
+        <xdr:cNvPr id="79" name="TextBox 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2817,7 +3052,13 @@
     <xdr:ext cx="852926" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="TextBox 79"/>
+        <xdr:cNvPr id="80" name="TextBox 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2874,7 +3115,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="Curved Connector 81"/>
+        <xdr:cNvPr id="82" name="Curved Connector 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="0"/>
           <a:endCxn id="6" idx="6"/>
@@ -2922,7 +3169,13 @@
     <xdr:ext cx="852926" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="TextBox 84"/>
+        <xdr:cNvPr id="85" name="TextBox 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2979,7 +3232,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="Curved Connector 86"/>
+        <xdr:cNvPr id="87" name="Curved Connector 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="8" idx="7"/>
           <a:endCxn id="8" idx="5"/>
@@ -3028,7 +3287,13 @@
     <xdr:ext cx="852926" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="TextBox 87"/>
+        <xdr:cNvPr id="88" name="TextBox 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3085,7 +3350,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="103" name="Curved Connector 102"/>
+        <xdr:cNvPr id="103" name="Curved Connector 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="9" idx="2"/>
           <a:endCxn id="9" idx="3"/>
@@ -3133,7 +3404,13 @@
     <xdr:ext cx="1442357" cy="557892"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="TextBox 105"/>
+        <xdr:cNvPr id="106" name="TextBox 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3448,7 +3725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3486,7 +3763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="X20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -3505,7 +3782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3891,11 +4168,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4122,7 +4399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">

--- a/Task.TestDesign/Task.test_disign.xlsx
+++ b/Task.TestDesign/Task.test_disign.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4565DDAF-2A04-4B13-99D7-F1130208C2C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8925" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="5" r:id="rId1"/>
@@ -339,7 +338,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -588,7 +587,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -671,12 +670,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Input 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3725,10 +3725,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3763,11 +3763,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="X20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,11 +3782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4044,19 +4044,28 @@
         <v>1</v>
       </c>
       <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4">
+        <v>7</v>
+      </c>
+      <c r="G15" s="4">
+        <v>8</v>
+      </c>
+      <c r="H15" s="42">
+        <v>4</v>
+      </c>
+      <c r="I15" s="42">
         <v>3</v>
       </c>
-      <c r="E15" s="4">
-        <v>4</v>
-      </c>
-      <c r="F15" s="4">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4">
-        <v>6</v>
+      <c r="J15" s="4">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -4069,8 +4078,11 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -4080,8 +4092,11 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -4091,8 +4106,11 @@
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -4102,8 +4120,11 @@
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="10"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>1</v>
       </c>
@@ -4114,7 +4135,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -4124,8 +4145,11 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -4135,8 +4159,11 @@
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
@@ -4146,8 +4173,11 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
@@ -4157,6 +4187,9 @@
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
       <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4168,11 +4201,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4399,7 +4432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">

--- a/Task.TestDesign/Task.test_disign.xlsx
+++ b/Task.TestDesign/Task.test_disign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8925"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8925" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="5" r:id="rId1"/>
@@ -655,6 +655,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -670,7 +671,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3728,7 +3728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3766,7 +3766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="X20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -3932,25 +3932,25 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -4058,10 +4058,10 @@
       <c r="G15" s="4">
         <v>8</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="35">
         <v>4</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="35">
         <v>3</v>
       </c>
       <c r="J15" s="4">
@@ -4204,7 +4204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4450,10 +4450,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="39"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -4488,7 +4488,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -4496,19 +4496,19 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="27" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="23" t="s">
         <v>60</v>
       </c>

--- a/Task.TestDesign/Task.test_disign.xlsx
+++ b/Task.TestDesign/Task.test_disign.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF796C7F-DFBA-4AD9-87D0-DEBDDF0520AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8925" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="5" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>Conditions</t>
   </si>
@@ -269,38 +270,7 @@
     <t>Alternative scenario:</t>
   </si>
   <si>
-    <t>1. The site displayed "Search" field for searching flights.
-2. The user filled in the form  and pressed the "Search of flights" button
-3. The site displayed available flights
-4. The user selects a necessary flight and clicked on the "Add to Cart" button.
-5. The site added selected flight to the shopping card
-6. The user clicked on the "Cart" button.
-7. The site displayed "Contacts" and "Traveler 1" forms.
-8. The user filled in all the required fields and press on the "Done" button.
-9. The site displayed "Accept all the terms and conditions" form
-10. The user selected "Agree" in all checkboxes and press on the "Continue" button.
-11.The site displayed "Services catalogue"
-12.The user click on the "Chose seat" button
-13.The user click on the seat place and click on the "Submit" button.
-14. The user chouse "Peyment option" and click on the "Pay" button.
-15.The site displayed form of payment card information.
-16. The user filled in all the required fields and press on the "Pay" button.</t>
-  </si>
-  <si>
     <t>Use Cases</t>
-  </si>
-  <si>
-    <t>1. No flights in this direction
-1.1. The user can not chouse his distination place, the
-input field clear themselves after invalid data.
-1.2. Go to step 2 of the main scenario.</t>
-  </si>
-  <si>
-    <t>2. No flights found for the selected date
-2.1. The site displayed massage "Flights are either not 
-available or sold out. Please choose another date or modify
- your request parameters."
-2.2. Go to step 2 of the main scenario.</t>
   </si>
   <si>
     <t>The Task:</t>
@@ -328,17 +298,51 @@
 3.2.Go to the step 8 of the main scenario</t>
   </si>
   <si>
+    <t>Assumption: User is not logged in</t>
+  </si>
+  <si>
+    <t>2. No flights found for the selected date
+2.1. The site is displaying massage "Flights are either not 
+available or sold out. Please choose another date or modify
+ your request parameters."
+2.2. Go to step 2 of the main scenario.</t>
+  </si>
+  <si>
     <t>4. The user wants to change the direction of the flight at the stage of payment and clicked
 on the site's header
-4.1. The site displayed message "Are you sure? When you redirect to the home page, you will lose all the completed fields"
-4.2. The user should press "OK"
+4.1. The site is displaying message "Are you sure? When you redirect to the home page, you will lose all the completed fields"
+4.2. The user is pressing "OK"
 4.3. Go to step 2 of the main scenario</t>
+  </si>
+  <si>
+    <t>1. The site is displaying "Search" field for searching flights.
+2. The user is filling in the form and pressing the "Search of flights" button
+3. The site is displaying available flights
+4. The user is selecting a necessary flight and clicked on the "Add to Cart" button.
+5. The site is adding selected flight to the shopping card
+6. The user is clicking on the "Cart" button.
+7. The site is displaying "Contacts" and "Traveler 1" forms.
+8. The user is filling in all the required fields and pressing on the "Done" button.
+9. The site is displaying "Accept all the terms and conditions" form
+10. The user is selecting "Agree" in all checkboxes and press on the "Continue" button.
+11.The site is displaying "Services catalogue"
+12.The user is clicking on the "Chose seat" button
+13.The user is clicking on the seat place and click on the "Submit" button.
+14. The user is choosing "Payment option" and click on the "Pay" button.
+15.The site is displaying form of payment card information.
+16. The user is filling in all the required fields and pressing on the "Pay" button.</t>
+  </si>
+  <si>
+    <t>1. No flights in this direction
+1.1. The user is not choosing his destination place, the
+input field clear themselves after invalid data.
+1.2. Go to step 2 of the main scenario.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -674,9 +678,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input 2" xfId="3"/>
+    <cellStyle name="Input 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -695,16 +699,76 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476094</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>141622</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152065</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>398513</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>164163</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>325281</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>86220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Right Arrow 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FEC0141-6CBB-4439-A7F9-D980DD38A948}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="14720923">
+          <a:off x="1048887" y="4543627"/>
+          <a:ext cx="817971" cy="173216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>192501</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>372257</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>122910</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -718,9 +782,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="19081842">
-          <a:off x="4762344" y="5285122"/>
-          <a:ext cx="2371705" cy="213041"/>
+        <a:xfrm rot="17560492">
+          <a:off x="4748666" y="5909020"/>
+          <a:ext cx="821025" cy="179756"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -819,15 +883,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>353786</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
+      <xdr:colOff>445646</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>183774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>570668</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>27533</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>151012</xdr:rowOff>
+      <xdr:rowOff>143342</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -842,8 +906,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="15410141">
-          <a:off x="7047417" y="5375904"/>
-          <a:ext cx="1525334" cy="216882"/>
+          <a:off x="7495806" y="5782814"/>
+          <a:ext cx="721568" cy="191487"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -878,16 +942,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>108507</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142604</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>229207</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>352270</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>150915</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>458746</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>183279</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -901,9 +965,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="12438539">
-          <a:off x="8068686" y="5286104"/>
-          <a:ext cx="3305370" cy="198811"/>
+        <a:xfrm rot="14515487" flipV="1">
+          <a:off x="10029549" y="6058382"/>
+          <a:ext cx="1355255" cy="229539"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -938,16 +1002,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>583533</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>72419</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>51644</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>41770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>144608</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>65001</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200806</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -961,9 +1025,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="8019334">
-          <a:off x="7681619" y="3030012"/>
-          <a:ext cx="1897582" cy="173396"/>
+        <a:xfrm rot="6512664">
+          <a:off x="8926422" y="2596992"/>
+          <a:ext cx="687605" cy="149162"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -998,16 +1062,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>111993</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>51802</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>207992</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>328875</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>53136</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>408872</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>163122</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1021,9 +1085,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="3731268">
-          <a:off x="6193303" y="2992028"/>
-          <a:ext cx="1525334" cy="216882"/>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="6024625" y="2540376"/>
+          <a:ext cx="759613" cy="200880"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1515,69 +1579,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>394606</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>27212</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Oval 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5905499" y="3769178"/>
-          <a:ext cx="2081892" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Cancellations</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>163286</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -2231,9 +2232,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>212271</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1770998" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -2249,7 +2250,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8708571" y="5810250"/>
+          <a:off x="8746671" y="5943600"/>
           <a:ext cx="1770998" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2288,10 +2289,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>503465</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>103415</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1314847" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -2307,7 +2308,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2952751" y="5470071"/>
+          <a:off x="1932215" y="5965371"/>
           <a:ext cx="1314847" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2404,16 +2405,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>8481</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>21816</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>435215</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>141077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>493304</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>3226</xdr:rowOff>
+      <xdr:colOff>533632</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>113694</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2427,9 +2428,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="11160434">
-          <a:off x="8580981" y="4403316"/>
-          <a:ext cx="3546430" cy="171910"/>
+        <a:xfrm rot="12245887">
+          <a:off x="11408015" y="4332077"/>
+          <a:ext cx="708017" cy="163117"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3454,6 +3455,997 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t> confirmation password.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Oval 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06FD8DE0-FAC3-42E9-ACE8-7AF0C95E16B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="3638550"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Cancellations</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Oval 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088F7884-E15C-44AA-AAEB-005D30CBBDF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8258175" y="3009900"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Cancellations</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1020536" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="TextBox 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF1385C-FD5F-487C-9843-831AE07D0CDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="2609850"/>
+          <a:ext cx="1020536" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Delete a flight </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>from the cart</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Oval 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391452F7-E84C-4E27-BE0D-99FEDB7C12C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5610225" y="3028950"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Cancellations</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1345368" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="TextBox 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC95670A-C792-4F3E-95B0-8BBE5AFE163A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="2695575"/>
+          <a:ext cx="1345368" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> another flight</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Oval 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF21B328-56A9-4532-91D6-116247BB542B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9058275" y="4876800"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Cancellations</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Oval 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEFAD76B-8FCB-4C47-A9C4-FB0AD1C2AA6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924675" y="4733925"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Cancellations</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Oval 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF17AFA-1653-4685-8191-793AB441E24E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619625" y="4819650"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Cancellations</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Oval 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA122836-404A-469F-ABEE-97303495FEBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="3486150"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Cancellations</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="TextBox 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781B0220-44D3-4352-8529-D3CB2E68EDB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11010900" y="4438650"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>326421</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1337738" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="TextBox 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4768737A-4B74-4372-83CC-FA9FE4811E44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10689621" y="4447787"/>
+          <a:ext cx="1337738" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Return to the ticket </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>selection page </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>without saving data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1337738" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="TextBox 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22C1EDDF-B358-4EA4-B0D2-24AFF77861B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10582275" y="5305425"/>
+          <a:ext cx="1337738" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Return to the ticket </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>selection page </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>without saving data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1337738" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="TextBox 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFD9983-F491-45C4-BAEE-3B09DDA8672B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7896225" y="5419725"/>
+          <a:ext cx="1337738" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Return to the ticket </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>selection page </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>without saving data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1337738" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="TextBox 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24EA9FC-360B-4A34-8EB6-DF70EDE896FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724275" y="5419725"/>
+          <a:ext cx="1337738" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Return to the ticket </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>selection page </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>without saving data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1152367" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="TextBox 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ECC4FE6-49D2-4FF4-BD76-6FC60E8CC9BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="4314825"/>
+          <a:ext cx="1152367" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Return the ticket</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3725,11 +4717,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3739,22 +4731,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3763,30 +4755,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="X20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B3:X20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB29" sqref="AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+    </row>
     <row r="20" spans="24:24" x14ac:dyDescent="0.25">
       <c r="X20" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4058,13 +5059,7 @@
       <c r="G15" s="4">
         <v>8</v>
       </c>
-      <c r="H15" s="35">
-        <v>4</v>
-      </c>
-      <c r="I15" s="35">
-        <v>3</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="H15" s="4">
         <v>9</v>
       </c>
     </row>
@@ -4078,11 +5073,9 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -4093,10 +5086,8 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -4106,11 +5097,9 @@
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -4120,11 +5109,9 @@
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>1</v>
       </c>
@@ -4134,8 +5121,9 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -4145,11 +5133,9 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -4160,10 +5146,8 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
@@ -4173,11 +5157,9 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
@@ -4188,8 +5170,6 @@
       <c r="F24" s="3"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4201,11 +5181,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4432,11 +5412,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4451,7 +5431,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="39"/>
     </row>
@@ -4484,7 +5464,7 @@
         <v>49</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -4492,25 +5472,25 @@
         <v>50</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
       <c r="B7" s="27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
       <c r="B8" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
       <c r="B9" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
